--- a/biology/Histoire de la zoologie et de la botanique/Edward_Tyson/Edward_Tyson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Tyson/Edward_Tyson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Tyson est un médecin et un anatomiste britannique, né le 20 janvier 1651 à Bristol et mort le 1er août 1708.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient à Oxford son Bachelor of Arts en 1670 et son Master of Arts en 1673. Il obtient son Medical Doctorat à Cambridge en 1677. En 1684, il est appointé médecin et gouverneur du Bethlem Royal Hospital à Londres (qui est le premier hôpital psychiatrique de Grande-Bretagne). On le crédite d’avoir fait évoluer l’hôpital d’une sorte de zoo à un endroit capable d’aider ses pensionnaires.
-Tyson est également considéré comme l’un des fondateurs de l’anatomie comparée, discipline basée sur la comparaison anatomique de différentes espèces. Il découvre en 1680, que les marsouins sont des mammifères. En 1698, il pratique la dissection d’un chimpanzé ce qui lui donne l’occasion de faire paraître un livre intitulé Orang-Outang, sive Homo Sylvestris: or, the Anatomy of a Pygmie Compared with that of a Monkey, an Ape, and a Man. Dans ce livre, il arrive à la conclusion que le chimpanzé a plus de ressemblances avec l’être humain qu’avec les singes, notamment dans la structure de son cerveau. Cette publication est réédité en 1894 avec une préface de Sir Bertram Coghill Alan Windle (1858-1929) et une courte biographie d’Edward Tyson[1].
+Tyson est également considéré comme l’un des fondateurs de l’anatomie comparée, discipline basée sur la comparaison anatomique de différentes espèces. Il découvre en 1680, que les marsouins sont des mammifères. En 1698, il pratique la dissection d’un chimpanzé ce qui lui donne l’occasion de faire paraître un livre intitulé Orang-Outang, sive Homo Sylvestris: or, the Anatomy of a Pygmie Compared with that of a Monkey, an Ape, and a Man. Dans ce livre, il arrive à la conclusion que le chimpanzé a plus de ressemblances avec l’être humain qu’avec les singes, notamment dans la structure de son cerveau. Cette publication est réédité en 1894 avec une préface de Sir Bertram Coghill Alan Windle (1858-1929) et une courte biographie d’Edward Tyson.
 </t>
         </is>
       </c>
